--- a/data/clean/Delphi2_percentages.xlsx
+++ b/data/clean/Delphi2_percentages.xlsx
@@ -712,10 +712,10 @@
         <v>205</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -732,10 +732,10 @@
         <v>205</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="4">
@@ -752,10 +752,10 @@
         <v>205</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="5">
@@ -772,10 +772,10 @@
         <v>205</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="6">
@@ -792,10 +792,10 @@
         <v>205</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="7">
@@ -812,10 +812,10 @@
         <v>205</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="8">
@@ -832,10 +832,10 @@
         <v>205</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="9">
@@ -852,10 +852,10 @@
         <v>205</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="10">
@@ -872,10 +872,10 @@
         <v>205</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         <v>205</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="12">
@@ -912,10 +912,10 @@
         <v>205</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="13">
@@ -932,10 +932,10 @@
         <v>205</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="14">
@@ -952,10 +952,10 @@
         <v>205</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="15">
@@ -972,10 +972,10 @@
         <v>205</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="16">
@@ -992,10 +992,10 @@
         <v>205</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="17">
@@ -1012,10 +1012,10 @@
         <v>205</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="18">
@@ -1032,10 +1032,10 @@
         <v>205</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="19">
@@ -1052,10 +1052,10 @@
         <v>205</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="20">
@@ -1072,10 +1072,10 @@
         <v>205</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="21">
@@ -1092,10 +1092,10 @@
         <v>205</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="22">
@@ -1112,10 +1112,10 @@
         <v>205</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="23">
@@ -1132,10 +1132,10 @@
         <v>205</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="24">
@@ -1152,10 +1152,10 @@
         <v>205</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="25">
@@ -1172,10 +1172,10 @@
         <v>205</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="26">
@@ -1192,10 +1192,10 @@
         <v>205</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="27">
@@ -1212,10 +1212,10 @@
         <v>205</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="28">
@@ -1232,10 +1232,10 @@
         <v>205</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="29">
@@ -1252,7 +1252,7 @@
         <v>205</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -1272,10 +1272,10 @@
         <v>205</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="31">
@@ -1292,10 +1292,10 @@
         <v>205</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="32">
@@ -1312,10 +1312,10 @@
         <v>205</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.0</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="33">
@@ -1332,10 +1332,10 @@
         <v>205</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="34">
@@ -1352,10 +1352,10 @@
         <v>205</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="35">
@@ -1372,10 +1372,10 @@
         <v>205</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="36">
@@ -1392,10 +1392,10 @@
         <v>205</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="37">
@@ -1412,10 +1412,10 @@
         <v>205</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="38">
@@ -1432,10 +1432,10 @@
         <v>205</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="39">
@@ -1452,10 +1452,10 @@
         <v>205</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="40">
@@ -1472,10 +1472,10 @@
         <v>205</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="41">
@@ -1492,10 +1492,10 @@
         <v>205</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="42">
@@ -1512,10 +1512,10 @@
         <v>205</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="43">
@@ -1532,10 +1532,10 @@
         <v>205</v>
       </c>
       <c r="E43" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.0</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="44">
@@ -1552,10 +1552,10 @@
         <v>205</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="45">
@@ -1572,10 +1572,10 @@
         <v>205</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.0</v>
+        <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="46">
@@ -1592,10 +1592,10 @@
         <v>205</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="47">
@@ -1612,10 +1612,10 @@
         <v>205</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.0</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="48">
@@ -1632,10 +1632,10 @@
         <v>205</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.0</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="49">
@@ -1652,10 +1652,10 @@
         <v>205</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50">
@@ -1672,10 +1672,10 @@
         <v>205</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="51">
@@ -1692,10 +1692,10 @@
         <v>205</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="52">
@@ -1712,10 +1712,10 @@
         <v>205</v>
       </c>
       <c r="E52" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="53">
@@ -1732,10 +1732,10 @@
         <v>205</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.0</v>
+        <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="54">
@@ -1752,10 +1752,10 @@
         <v>205</v>
       </c>
       <c r="E54" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0</v>
+        <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="55">
@@ -1772,10 +1772,10 @@
         <v>205</v>
       </c>
       <c r="E55" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="56">
@@ -1792,10 +1792,10 @@
         <v>205</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="57">
@@ -1812,10 +1812,10 @@
         <v>205</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.0</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="58">
@@ -1832,10 +1832,10 @@
         <v>205</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="59">
@@ -1852,10 +1852,10 @@
         <v>205</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="60">
@@ -1872,10 +1872,10 @@
         <v>205</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="61">
@@ -1892,10 +1892,10 @@
         <v>205</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="62">
@@ -1912,10 +1912,10 @@
         <v>205</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="63">
@@ -1932,10 +1932,10 @@
         <v>205</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0</v>
+        <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="64">
@@ -1952,10 +1952,10 @@
         <v>205</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="65">
@@ -1972,10 +1972,10 @@
         <v>205</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" t="n">
-        <v>1.0</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="66">
@@ -1992,10 +1992,10 @@
         <v>205</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F66" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="67">
@@ -2012,10 +2012,10 @@
         <v>205</v>
       </c>
       <c r="E67" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="68">
@@ -2032,10 +2032,10 @@
         <v>205</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="69">
@@ -2052,10 +2052,10 @@
         <v>205</v>
       </c>
       <c r="E69" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
       </c>
       <c r="F69" t="n">
-        <v>1.0</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="70">
@@ -2072,10 +2072,10 @@
         <v>205</v>
       </c>
       <c r="E70" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="71">
@@ -2092,7 +2092,7 @@
         <v>205</v>
       </c>
       <c r="E71" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F71" t="n">
         <v>1.0</v>
@@ -2112,10 +2112,10 @@
         <v>205</v>
       </c>
       <c r="E72" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="73">
@@ -2132,10 +2132,10 @@
         <v>205</v>
       </c>
       <c r="E73" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="F73" t="n">
-        <v>1.0</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="74">
@@ -2152,10 +2152,10 @@
         <v>205</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0</v>
+        <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="75">
@@ -2172,10 +2172,10 @@
         <v>205</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="76">
@@ -2192,10 +2192,10 @@
         <v>205</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F76" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="77">
@@ -2212,7 +2212,7 @@
         <v>205</v>
       </c>
       <c r="E77" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F77" t="n">
         <v>1.0</v>
@@ -2232,10 +2232,10 @@
         <v>205</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="F78" t="n">
-        <v>1.0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="79">
@@ -2252,10 +2252,10 @@
         <v>205</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="80">
@@ -2272,10 +2272,10 @@
         <v>205</v>
       </c>
       <c r="E80" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="F80" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="81">
@@ -2292,10 +2292,10 @@
         <v>205</v>
       </c>
       <c r="E81" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="F81" t="n">
-        <v>1.0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="82">
@@ -2312,10 +2312,10 @@
         <v>205</v>
       </c>
       <c r="E82" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F82" t="n">
-        <v>1.0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="83">
@@ -2332,10 +2332,10 @@
         <v>205</v>
       </c>
       <c r="E83" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="F83" t="n">
-        <v>1.0</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="84">
@@ -2352,10 +2352,10 @@
         <v>205</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F84" t="n">
-        <v>1.0</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="85">
@@ -2372,10 +2372,10 @@
         <v>205</v>
       </c>
       <c r="E85" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="86">
@@ -2392,10 +2392,10 @@
         <v>205</v>
       </c>
       <c r="E86" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F86" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87">
@@ -2412,10 +2412,10 @@
         <v>205</v>
       </c>
       <c r="E87" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88">
@@ -2432,10 +2432,10 @@
         <v>205</v>
       </c>
       <c r="E88" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F88" t="n">
-        <v>1.0</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="89">
@@ -2452,10 +2452,10 @@
         <v>205</v>
       </c>
       <c r="E89" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="90">
@@ -2472,10 +2472,10 @@
         <v>205</v>
       </c>
       <c r="E90" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91">
@@ -2492,10 +2492,10 @@
         <v>205</v>
       </c>
       <c r="E91" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F91" t="n">
-        <v>1.0</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="92">
@@ -2512,10 +2512,10 @@
         <v>205</v>
       </c>
       <c r="E92" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F92" t="n">
-        <v>1.0</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="93">
@@ -2532,10 +2532,10 @@
         <v>205</v>
       </c>
       <c r="E93" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="F93" t="n">
-        <v>1.0</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="94">
@@ -2552,10 +2552,10 @@
         <v>205</v>
       </c>
       <c r="E94" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.0</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="95">
@@ -2572,10 +2572,10 @@
         <v>205</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="F95" t="n">
-        <v>1.0</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data/clean/Delphi2_percentages.xlsx
+++ b/data/clean/Delphi2_percentages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="301">
   <si>
     <t>cluster</t>
   </si>
@@ -20,6 +20,9 @@
     <t>variable</t>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -627,6 +630,288 @@
   </si>
   <si>
     <t>Q13_3</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Informally assess the asylum seeker's level of host culture acculturation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Belong to the asylum seeker's culture and speak the language.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Avoid excessive culturalisation and a disproportionate emphasis on cultural influences and stereotypes, to the detriment of other important considerations during the conversation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Acknowledge that cultural backgrounds and societal positions interact in determining mental health experiences.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware that for many asylum seekers there is a strong connection between spirituality and mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware of the wide range of concepts, definitions and idioms of mental health, used by asylum seekers to communicate about their needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Encourage an in-depth exchange of views on mental health (care) and be committed to learning about asylum seekers’ views.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Understand and recognise common mental health challenges and their varied manifestations among asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware of ethnocentrism</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Demonstrate openness to cultural differences and cultural humility.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Do not cast Western mental health categories as universal, avoiding the category fallacy.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Reflect on the influence and limitations of your own cultural context, views and biases.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware of the unique characteristics of the resident (e.g. ethnic, cultural, spiritual, social, educational, linguistic) and how these may influence mental health conversations.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be knowledgeable about how cultural backgrounds can shape the understanding, experience and expression of mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware that the use of certain terms and labels can be stigmatising for asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Check the cultural appropriateness of mental health assessment tools and interpret results with caution.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Show your humanity and approach asylum seekers as human beings with struggles, challenges, hopes and dreams similar to your own.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Spend time interacting with asylum seekers to understand their needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Demonstrate deep respect for asylum seekers, not judge them.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Look for ways to connect with the asylum seeker to create a basis for the conversation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Show your willingness and availability to help.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be compassionate.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be empathic.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be curious.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Establish a relationship that promotes safety and builds trust.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Establish rapport and working alliance.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Foster a safe and welcoming environment so that asylum seekers feel valued and understood.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be trustworthy and honest about your limitations and those of the system in which you operate.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Ask open-ended questions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Accommodate communicative needs, barriers and limitations by including translators or multilingual colleagues in the conversation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Listen actively.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Be aware of language nuances and that things can get lost in translation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Conduct mental health conversations at a pace that is comfortable and tolerable for asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Pay attention to non-verbal communication.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Adapt your communication style to suit the person and the situation at hand.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Take the lead from asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Be committed to identifying and working with asylum seekers' preferred approaches and resources for managing mental health and reducing distress.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Know that some behaviours require immediate professional attention to save lives.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Centre the asylum seekers' voices and the priorities they highlight during the conversation, accepting that they may be different from your own.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Respond to immediate concerns.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Avoid imposing your own views and approaches on asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Encourage and enable asylum seekers to sustain existing relationships.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Know the wide range of mental health resources and how to promote resilience.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Approach the conversation from a strength (resilience) perspective to address feelings of powerlessness and helplessness.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Build a bridge between the asylum seeker's perspective and experiences and the resources and services available.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Explore what has sustained the asylum seekers through their experiences and identify together how they can continue to use and build on these resources.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Facilitate connections with relevant community resources and support networks, aiding in the integration and social support of residents.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Initiate scalable psychological interventions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Provide psychological first aid.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Adopt a survivor-centred approach.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Adopt a trauma-informed approach.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Be aware that mindfulness practices can help to gain some control over emotions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Blend insights and approaches from diverse cultures in ways that promote well-being.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Employ de-escalation techniques and support emotional regulation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Know how to help prevent gender-based violence and child protection violations.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Pay attention to mind-body connections and psychosomatic experiences and expressions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Understand the importance of family and a collective approach to help seeking.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Know that even short conversations can be very significant.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Provide assistance with practical challenges and accompany asylum seekers in meeting requirements.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Implement protocols, approaches and interventions that are sensitive to cultural differences among asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Contextualise and normalise asylum seekers' mental health presentations, taking into account their specific situation and unique context.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Realise that asylum seekers are typically struggling with a series of practical challenges that they need to solve before they are ready to address their mental health issues.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Realise that the organisational context and characteristics influence mental health conversations with asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Recognise that asylum applications and procedures evoke strong emotions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Consider pre-, peri- and post-migration stressors and their impact on mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Be familiar with the basics of the asylum policy and procedure and have resources to help asylum seekers find answers to their questions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Keep in mind that asylum seekers may have had to tell their story many times, sometimes in hostile circumstances.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Realise that systemic and structural factors influence an individual's mental health capacity and needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Have an understanding of the context of displacement and (forced) migration, the kinds of situations that asylum seekers are likely to have been exposed to and how this may impact on mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Understand that current living conditions and experiences can trigger and exacerbate mental health challenges.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Express support for the resident’s asylum claim.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Recognise and resist oppressive government policies and measures.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Mitigate power inequalities in the relationship and show your commitment to equity.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Safeguard human rights and social justice.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Identify and acknowledge injustices faced by asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Identify barriers that may prevent asylum seekers from benefiting from particular approaches, interventions and treatments.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Tolerate feelings of powerlessness and helplessness due to lack of immediate solutions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Be aware of the fact that this work implicitly or explicitly has an impact on the way you perceive political debate.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Be prepared to tolerate strong emotions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Engage in self-care and well-being practices, to take care of your own mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Commit to ongoing professional development, be open to learning from your work and to be supported in reflecting on your mental health conversations with asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Reflect on the influence of your own life history and experiences.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Be mindful of not abusing your power.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Collaborate with peer workers who share lived experiences with the residents.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Collaborate with people who can provide experience-based insights into cultural meanings and understandings of mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Work in a network that addresses different areas of life, in the knowledge that a holistic, multi-sectoral approach is essential.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Navigate available services and know when and where to orientate asylum seekers in need of additional support.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Be willing to bend and defy rules and regulations.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Check the asylum seekers’ consent to talk about certain issues, understanding that they may face barriers to having mental health conversations and disclosing mental health needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Communicate clearly about confidentiality and be transparent about its limits.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Respect the imperative of "do no harm" and the principles of ethical conduct.</t>
+  </si>
+  <si>
+    <t>CLUSTER 12 - Avoid eliciting detailed recounts of past experiences, and instead focus on the impact and resulting needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 12 - Understand that trauma affects memory and can lead to inconsistent narratives from asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 12 - Choose a place for the conversations that feels safe to the asylum seeker.</t>
   </si>
   <si>
     <t>I agree</t>
@@ -697,1884 +982,2169 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" t="n">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" t="n">
         <v>11.0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" t="n">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" t="n">
         <v>4.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E4" t="n">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" t="n">
         <v>16.0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" t="n">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" t="n">
         <v>20.0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" t="n">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" t="n">
         <v>20.0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" t="n">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" t="n">
         <v>21.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="n">
+        <v>212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="n">
         <v>22.0</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" t="n">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" t="n">
         <v>22.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" t="n">
+        <v>214</v>
+      </c>
+      <c r="E10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" t="n">
         <v>22.0</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" t="n">
+        <v>215</v>
+      </c>
+      <c r="E11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" t="n">
         <v>23.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" t="n">
+        <v>216</v>
+      </c>
+      <c r="E12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" t="n">
         <v>23.0</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E13" t="n">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" t="n">
         <v>23.0</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" t="n">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>300</v>
+      </c>
+      <c r="F14" t="n">
         <v>23.0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" t="n">
+        <v>219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" t="n">
         <v>23.0</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" t="n">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" t="n">
         <v>24.0</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" t="n">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" t="n">
         <v>25.0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" t="n">
+        <v>222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" t="n">
         <v>20.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" t="n">
+        <v>223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" t="n">
         <v>20.0</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" t="n">
+        <v>224</v>
+      </c>
+      <c r="E20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="n">
         <v>22.0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" t="n">
+        <v>225</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F21" t="n">
         <v>22.0</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" t="n">
+        <v>226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" t="n">
         <v>23.0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" t="n">
+        <v>227</v>
+      </c>
+      <c r="E23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" t="n">
         <v>25.0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" t="n">
+        <v>228</v>
+      </c>
+      <c r="E24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" t="n">
         <v>25.0</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
-      </c>
-      <c r="E25" t="n">
+        <v>229</v>
+      </c>
+      <c r="E25" t="s">
+        <v>300</v>
+      </c>
+      <c r="F25" t="n">
         <v>26.0</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" t="n">
+        <v>230</v>
+      </c>
+      <c r="E26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" t="n">
         <v>26.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E27" t="n">
+        <v>231</v>
+      </c>
+      <c r="E27" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" t="n">
         <v>26.0</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E28" t="n">
+        <v>232</v>
+      </c>
+      <c r="E28" t="s">
+        <v>300</v>
+      </c>
+      <c r="F28" t="n">
         <v>26.0</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" t="n">
+        <v>233</v>
+      </c>
+      <c r="E29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" t="n">
         <v>27.0</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" t="n">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" t="n">
         <v>19.0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" t="n">
+        <v>235</v>
+      </c>
+      <c r="E31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" t="n">
         <v>22.0</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" t="n">
+        <v>236</v>
+      </c>
+      <c r="E32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F32" t="n">
         <v>22.0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" t="n">
+        <v>237</v>
+      </c>
+      <c r="E33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" t="n">
         <v>23.0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E34" t="n">
+        <v>238</v>
+      </c>
+      <c r="E34" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" t="n">
         <v>24.0</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" t="n">
+        <v>239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" t="n">
         <v>26.0</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E36" t="n">
+        <v>240</v>
+      </c>
+      <c r="E36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" t="n">
         <v>26.0</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" t="n">
+        <v>241</v>
+      </c>
+      <c r="E37" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" t="n">
         <v>8.0</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
-      </c>
-      <c r="E38" t="n">
+        <v>242</v>
+      </c>
+      <c r="E38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" t="n">
         <v>21.0</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" t="n">
+        <v>243</v>
+      </c>
+      <c r="E39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" t="n">
         <v>21.0</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" t="n">
+        <v>244</v>
+      </c>
+      <c r="E40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" t="n">
         <v>22.0</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
-      </c>
-      <c r="E41" t="n">
+        <v>245</v>
+      </c>
+      <c r="E41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F41" t="n">
         <v>22.0</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
-      </c>
-      <c r="E42" t="n">
+        <v>246</v>
+      </c>
+      <c r="E42" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" t="n">
         <v>24.0</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43" t="n">
+        <v>247</v>
+      </c>
+      <c r="E43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" t="n">
         <v>18.0</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" t="n">
+        <v>248</v>
+      </c>
+      <c r="E44" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" t="n">
         <v>18.0</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" t="n">
+        <v>249</v>
+      </c>
+      <c r="E45" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" t="n">
         <v>19.0</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" t="n">
+        <v>250</v>
+      </c>
+      <c r="E46" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" t="n">
         <v>24.0</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" t="n">
+        <v>251</v>
+      </c>
+      <c r="E47" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" t="n">
         <v>25.0</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" t="n">
+        <v>252</v>
+      </c>
+      <c r="E48" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" t="n">
         <v>25.0</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D49" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" t="n">
+        <v>253</v>
+      </c>
+      <c r="E49" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" t="n">
         <v>13.0</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" t="n">
+        <v>254</v>
+      </c>
+      <c r="E50" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" t="n">
         <v>14.0</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" t="n">
+        <v>255</v>
+      </c>
+      <c r="E51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F51" t="n">
         <v>16.0</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" t="n">
+        <v>256</v>
+      </c>
+      <c r="E52" t="s">
+        <v>300</v>
+      </c>
+      <c r="F52" t="n">
         <v>16.0</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E53" t="n">
+        <v>257</v>
+      </c>
+      <c r="E53" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" t="n">
         <v>19.0</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" t="n">
+        <v>258</v>
+      </c>
+      <c r="E54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F54" t="n">
         <v>19.0</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" t="n">
+        <v>259</v>
+      </c>
+      <c r="E55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F55" t="n">
         <v>20.0</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" t="n">
+        <v>260</v>
+      </c>
+      <c r="E56" t="s">
+        <v>300</v>
+      </c>
+      <c r="F56" t="n">
         <v>20.0</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
-      </c>
-      <c r="E57" t="n">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" t="n">
         <v>22.0</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" t="n">
+        <v>262</v>
+      </c>
+      <c r="E58" t="s">
+        <v>300</v>
+      </c>
+      <c r="F58" t="n">
         <v>22.0</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" t="n">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s">
+        <v>300</v>
+      </c>
+      <c r="F59" t="n">
         <v>23.0</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
-      </c>
-      <c r="E60" t="n">
+        <v>264</v>
+      </c>
+      <c r="E60" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" t="n">
         <v>23.0</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" t="n">
+        <v>265</v>
+      </c>
+      <c r="E61" t="s">
+        <v>300</v>
+      </c>
+      <c r="F61" t="n">
         <v>24.0</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" t="n">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" t="n">
         <v>25.0</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" t="n">
+        <v>267</v>
+      </c>
+      <c r="E63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" t="n">
         <v>19.0</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
-      </c>
-      <c r="E64" t="n">
+        <v>268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" t="n">
         <v>21.0</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
-      </c>
-      <c r="E65" t="n">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>300</v>
+      </c>
+      <c r="F65" t="n">
         <v>22.0</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
-      </c>
-      <c r="E66" t="n">
+        <v>270</v>
+      </c>
+      <c r="E66" t="s">
+        <v>300</v>
+      </c>
+      <c r="F66" t="n">
         <v>23.0</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" t="n">
+        <v>271</v>
+      </c>
+      <c r="E67" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" t="n">
         <v>24.0</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
-      </c>
-      <c r="E68" t="n">
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" t="n">
         <v>24.0</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" t="n">
+        <v>273</v>
+      </c>
+      <c r="E69" t="s">
+        <v>300</v>
+      </c>
+      <c r="F69" t="n">
         <v>24.0</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
-      </c>
-      <c r="E70" t="n">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" t="n">
         <v>25.0</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
-      </c>
-      <c r="E71" t="n">
+        <v>275</v>
+      </c>
+      <c r="E71" t="s">
+        <v>300</v>
+      </c>
+      <c r="F71" t="n">
         <v>26.0</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
-      </c>
-      <c r="E72" t="n">
+        <v>276</v>
+      </c>
+      <c r="E72" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" t="n">
         <v>11.0</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E73" t="n">
+        <v>277</v>
+      </c>
+      <c r="E73" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" t="n">
         <v>15.0</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" t="n">
+        <v>278</v>
+      </c>
+      <c r="E74" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" t="n">
         <v>19.0</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.7307692307692307</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
-      </c>
-      <c r="E75" t="n">
+        <v>279</v>
+      </c>
+      <c r="E75" t="s">
+        <v>300</v>
+      </c>
+      <c r="F75" t="n">
         <v>21.0</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
-      </c>
-      <c r="E76" t="n">
+        <v>280</v>
+      </c>
+      <c r="E76" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" t="n">
         <v>23.0</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D77" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" t="n">
+        <v>281</v>
+      </c>
+      <c r="E77" t="s">
+        <v>300</v>
+      </c>
+      <c r="F77" t="n">
         <v>26.0</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" t="n">
+        <v>282</v>
+      </c>
+      <c r="E78" t="s">
+        <v>300</v>
+      </c>
+      <c r="F78" t="n">
         <v>15.0</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.625</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" t="n">
+        <v>283</v>
+      </c>
+      <c r="E79" t="s">
+        <v>300</v>
+      </c>
+      <c r="F79" t="n">
         <v>17.0</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
-      </c>
-      <c r="E80" t="n">
+        <v>284</v>
+      </c>
+      <c r="E80" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" t="n">
         <v>18.0</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>205</v>
-      </c>
-      <c r="E81" t="n">
+        <v>285</v>
+      </c>
+      <c r="E81" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" t="n">
         <v>20.0</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" t="n">
+        <v>286</v>
+      </c>
+      <c r="E82" t="s">
+        <v>300</v>
+      </c>
+      <c r="F82" t="n">
         <v>22.0</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" t="n">
+        <v>287</v>
+      </c>
+      <c r="E83" t="s">
+        <v>300</v>
+      </c>
+      <c r="F83" t="n">
         <v>22.0</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" t="n">
+        <v>288</v>
+      </c>
+      <c r="E84" t="s">
+        <v>300</v>
+      </c>
+      <c r="F84" t="n">
         <v>23.0</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" t="n">
+        <v>289</v>
+      </c>
+      <c r="E85" t="s">
+        <v>300</v>
+      </c>
+      <c r="F85" t="n">
         <v>18.0</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" t="n">
+        <v>290</v>
+      </c>
+      <c r="E86" t="s">
+        <v>300</v>
+      </c>
+      <c r="F86" t="n">
         <v>21.0</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.875</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" t="n">
+        <v>291</v>
+      </c>
+      <c r="E87" t="s">
+        <v>300</v>
+      </c>
+      <c r="F87" t="n">
         <v>21.0</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>0.875</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
-      </c>
-      <c r="E88" t="n">
+        <v>292</v>
+      </c>
+      <c r="E88" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" t="n">
         <v>23.0</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" t="n">
+        <v>293</v>
+      </c>
+      <c r="E89" t="s">
+        <v>300</v>
+      </c>
+      <c r="F89" t="n">
         <v>5.0</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
-      </c>
-      <c r="E90" t="n">
+        <v>294</v>
+      </c>
+      <c r="E90" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" t="n">
         <v>21.0</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.875</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" t="n">
+        <v>295</v>
+      </c>
+      <c r="E91" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" t="n">
         <v>23.0</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>205</v>
-      </c>
-      <c r="E92" t="n">
+        <v>296</v>
+      </c>
+      <c r="E92" t="s">
+        <v>300</v>
+      </c>
+      <c r="F92" t="n">
         <v>23.0</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
-      </c>
-      <c r="E93" t="n">
+        <v>297</v>
+      </c>
+      <c r="E93" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" t="n">
         <v>14.0</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>205</v>
-      </c>
-      <c r="E94" t="n">
+        <v>298</v>
+      </c>
+      <c r="E94" t="s">
+        <v>300</v>
+      </c>
+      <c r="F94" t="n">
         <v>23.0</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
-      </c>
-      <c r="E95" t="n">
+        <v>299</v>
+      </c>
+      <c r="E95" t="s">
+        <v>300</v>
+      </c>
+      <c r="F95" t="n">
         <v>23.0</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.9583333333333334</v>
       </c>
     </row>

--- a/data/clean/Delphi2_percentages.xlsx
+++ b/data/clean/Delphi2_percentages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="450">
   <si>
     <t>cluster</t>
   </si>
@@ -314,9 +314,459 @@
     <t>94</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
     <t>CLUSTER 1</t>
   </si>
   <si>
+    <t>CLUSTER 10</t>
+  </si>
+  <si>
+    <t>CLUSTER 11</t>
+  </si>
+  <si>
+    <t>CLUSTER 12</t>
+  </si>
+  <si>
     <t>CLUSTER 2</t>
   </si>
   <si>
@@ -341,580 +791,577 @@
     <t>CLUSTER 9</t>
   </si>
   <si>
-    <t>CLUSTER 10</t>
-  </si>
-  <si>
-    <t>CLUSTER 11</t>
-  </si>
-  <si>
-    <t>CLUSTER 12</t>
+    <t>Q2_1</t>
+  </si>
+  <si>
+    <t>Q2_10</t>
+  </si>
+  <si>
+    <t>Q2_11</t>
+  </si>
+  <si>
+    <t>Q2_12</t>
+  </si>
+  <si>
+    <t>Q2_13</t>
   </si>
   <si>
     <t>Q2_14</t>
   </si>
   <si>
+    <t>Q2_15</t>
+  </si>
+  <si>
+    <t>Q2_16</t>
+  </si>
+  <si>
+    <t>Q2_2</t>
+  </si>
+  <si>
+    <t>Q2_3</t>
+  </si>
+  <si>
+    <t>Q2_4</t>
+  </si>
+  <si>
+    <t>Q2_5</t>
+  </si>
+  <si>
+    <t>Q2_6</t>
+  </si>
+  <si>
+    <t>Q2_7</t>
+  </si>
+  <si>
+    <t>Q2_8</t>
+  </si>
+  <si>
     <t>Q2_9</t>
   </si>
   <si>
-    <t>Q2_2</t>
-  </si>
-  <si>
-    <t>Q2_1</t>
-  </si>
-  <si>
-    <t>Q2_6</t>
-  </si>
-  <si>
-    <t>Q2_5</t>
-  </si>
-  <si>
-    <t>Q2_13</t>
-  </si>
-  <si>
-    <t>Q2_16</t>
-  </si>
-  <si>
-    <t>Q2_3</t>
-  </si>
-  <si>
-    <t>Q2_11</t>
-  </si>
-  <si>
-    <t>Q2_12</t>
-  </si>
-  <si>
-    <t>Q2_15</t>
-  </si>
-  <si>
-    <t>Q2_4</t>
-  </si>
-  <si>
-    <t>Q2_8</t>
-  </si>
-  <si>
-    <t>Q2_7</t>
-  </si>
-  <si>
-    <t>Q2_10</t>
+    <t>Q11_1</t>
+  </si>
+  <si>
+    <t>Q11_2</t>
+  </si>
+  <si>
+    <t>Q11_3</t>
+  </si>
+  <si>
+    <t>Q11_4</t>
+  </si>
+  <si>
+    <t>Q12_1</t>
+  </si>
+  <si>
+    <t>Q12_2</t>
+  </si>
+  <si>
+    <t>Q12_3</t>
+  </si>
+  <si>
+    <t>Q12_4</t>
+  </si>
+  <si>
+    <t>Q13_1</t>
+  </si>
+  <si>
+    <t>Q13_2</t>
+  </si>
+  <si>
+    <t>Q13_3</t>
+  </si>
+  <si>
+    <t>Q3_1</t>
   </si>
   <si>
     <t>Q3_10</t>
   </si>
   <si>
+    <t>Q3_11</t>
+  </si>
+  <si>
     <t>Q3_12</t>
   </si>
   <si>
+    <t>Q3_2</t>
+  </si>
+  <si>
+    <t>Q3_3</t>
+  </si>
+  <si>
+    <t>Q3_4</t>
+  </si>
+  <si>
     <t>Q3_5</t>
   </si>
   <si>
+    <t>Q3_6</t>
+  </si>
+  <si>
+    <t>Q3_7</t>
+  </si>
+  <si>
+    <t>Q3_8</t>
+  </si>
+  <si>
     <t>Q3_9</t>
   </si>
   <si>
-    <t>Q3_11</t>
-  </si>
-  <si>
-    <t>Q3_1</t>
-  </si>
-  <si>
-    <t>Q3_3</t>
-  </si>
-  <si>
-    <t>Q3_2</t>
-  </si>
-  <si>
-    <t>Q3_6</t>
-  </si>
-  <si>
-    <t>Q3_7</t>
-  </si>
-  <si>
-    <t>Q3_8</t>
-  </si>
-  <si>
-    <t>Q3_4</t>
+    <t>Q4_1</t>
+  </si>
+  <si>
+    <t>Q4_2</t>
+  </si>
+  <si>
+    <t>Q4_3</t>
+  </si>
+  <si>
+    <t>Q4_4</t>
   </si>
   <si>
     <t>Q4_5</t>
   </si>
   <si>
-    <t>Q4_1</t>
-  </si>
-  <si>
-    <t>Q4_2</t>
-  </si>
-  <si>
-    <t>Q4_3</t>
-  </si>
-  <si>
     <t>Q4_6</t>
   </si>
   <si>
-    <t>Q4_4</t>
-  </si>
-  <si>
     <t>Q4_7</t>
   </si>
   <si>
+    <t>Q5_1</t>
+  </si>
+  <si>
+    <t>Q5_2</t>
+  </si>
+  <si>
+    <t>Q5_3</t>
+  </si>
+  <si>
+    <t>Q5_4</t>
+  </si>
+  <si>
+    <t>Q5_5</t>
+  </si>
+  <si>
     <t>Q5_6</t>
   </si>
   <si>
-    <t>Q5_2</t>
-  </si>
-  <si>
-    <t>Q5_4</t>
-  </si>
-  <si>
-    <t>Q5_3</t>
-  </si>
-  <si>
-    <t>Q5_5</t>
-  </si>
-  <si>
-    <t>Q5_1</t>
+    <t>Q6_1</t>
+  </si>
+  <si>
+    <t>Q6_2</t>
   </si>
   <si>
     <t>Q6_3</t>
   </si>
   <si>
+    <t>Q6_4</t>
+  </si>
+  <si>
+    <t>Q6_5</t>
+  </si>
+  <si>
     <t>Q6_6</t>
   </si>
   <si>
-    <t>Q6_1</t>
-  </si>
-  <si>
-    <t>Q6_2</t>
-  </si>
-  <si>
-    <t>Q6_4</t>
-  </si>
-  <si>
-    <t>Q6_5</t>
+    <t>Q7_1</t>
+  </si>
+  <si>
+    <t>Q7_10</t>
+  </si>
+  <si>
+    <t>Q7_11</t>
+  </si>
+  <si>
+    <t>Q7_12</t>
+  </si>
+  <si>
+    <t>Q7_13</t>
+  </si>
+  <si>
+    <t>Q7_14</t>
+  </si>
+  <si>
+    <t>Q7_2</t>
+  </si>
+  <si>
+    <t>Q7_3</t>
+  </si>
+  <si>
+    <t>Q7_4</t>
+  </si>
+  <si>
+    <t>Q7_5</t>
+  </si>
+  <si>
+    <t>Q7_6</t>
+  </si>
+  <si>
+    <t>Q7_7</t>
   </si>
   <si>
     <t>Q7_8</t>
   </si>
   <si>
-    <t>Q7_13</t>
-  </si>
-  <si>
-    <t>Q7_1</t>
-  </si>
-  <si>
-    <t>Q7_2</t>
-  </si>
-  <si>
-    <t>Q7_3</t>
-  </si>
-  <si>
-    <t>Q7_4</t>
-  </si>
-  <si>
-    <t>Q7_6</t>
-  </si>
-  <si>
     <t>Q7_9</t>
   </si>
   <si>
-    <t>Q7_11</t>
-  </si>
-  <si>
-    <t>Q7_14</t>
-  </si>
-  <si>
-    <t>Q7_10</t>
-  </si>
-  <si>
-    <t>Q7_12</t>
-  </si>
-  <si>
-    <t>Q7_7</t>
-  </si>
-  <si>
-    <t>Q7_5</t>
+    <t>Q8_1</t>
+  </si>
+  <si>
+    <t>Q8_2</t>
+  </si>
+  <si>
+    <t>Q8_3</t>
+  </si>
+  <si>
+    <t>Q8_4</t>
   </si>
   <si>
     <t>Q8_5</t>
   </si>
   <si>
+    <t>Q8_6</t>
+  </si>
+  <si>
     <t>Q8_7</t>
   </si>
   <si>
     <t>Q8_8</t>
   </si>
   <si>
-    <t>Q8_2</t>
-  </si>
-  <si>
-    <t>Q8_1</t>
-  </si>
-  <si>
-    <t>Q8_4</t>
-  </si>
-  <si>
-    <t>Q8_6</t>
-  </si>
-  <si>
-    <t>Q8_3</t>
-  </si>
-  <si>
     <t>Q8_9</t>
   </si>
   <si>
     <t>Q9_1</t>
   </si>
   <si>
+    <t>Q9_2</t>
+  </si>
+  <si>
+    <t>Q9_3</t>
+  </si>
+  <si>
+    <t>Q9_4</t>
+  </si>
+  <si>
     <t>Q9_5</t>
   </si>
   <si>
-    <t>Q9_4</t>
-  </si>
-  <si>
     <t>Q9_6</t>
   </si>
   <si>
-    <t>Q9_2</t>
-  </si>
-  <si>
-    <t>Q9_3</t>
+    <t>Q10_1</t>
+  </si>
+  <si>
+    <t>Q10_2</t>
+  </si>
+  <si>
+    <t>Q10_3</t>
+  </si>
+  <si>
+    <t>Q10_4</t>
+  </si>
+  <si>
+    <t>Q10_5</t>
+  </si>
+  <si>
+    <t>Q10_6</t>
   </si>
   <si>
     <t>Q10_7</t>
   </si>
   <si>
-    <t>Q10_1</t>
-  </si>
-  <si>
-    <t>Q10_3</t>
-  </si>
-  <si>
-    <t>Q10_5</t>
-  </si>
-  <si>
-    <t>Q10_4</t>
-  </si>
-  <si>
-    <t>Q10_6</t>
-  </si>
-  <si>
-    <t>Q10_2</t>
-  </si>
-  <si>
-    <t>Q11_1</t>
-  </si>
-  <si>
-    <t>Q11_2</t>
-  </si>
-  <si>
-    <t>Q11_4</t>
-  </si>
-  <si>
-    <t>Q11_3</t>
-  </si>
-  <si>
-    <t>Q12_1</t>
-  </si>
-  <si>
-    <t>Q12_2</t>
-  </si>
-  <si>
-    <t>Q12_3</t>
-  </si>
-  <si>
-    <t>Q12_4</t>
-  </si>
-  <si>
-    <t>Q13_1</t>
-  </si>
-  <si>
-    <t>Q13_2</t>
-  </si>
-  <si>
-    <t>Q13_3</t>
+    <t>CLUSTER 1  - Acknowledge that cultural backgrounds and societal positions interact in determining mental health experiences.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Check the cultural appropriateness of mental health assessment tools and interpret results with caution.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Demonstrate openness to cultural differences and cultural humility.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Do not cast Western mental health categories as universal, avoiding the category fallacy.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Encourage an in-depth exchange of views on mental health (care) and be committed to learning about asylum seekers’ views.</t>
   </si>
   <si>
     <t>CLUSTER 1  - Informally assess the asylum seeker's level of host culture acculturation.</t>
   </si>
   <si>
+    <t>CLUSTER 1  - Reflect on the influence and limitations of your own cultural context, views and biases.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Understand and recognise common mental health challenges and their varied manifestations among asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Avoid excessive culturalisation and a disproportionate emphasis on cultural influences and stereotypes, to the detriment of other important considerations during the conversation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware of ethnocentrism</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware of the unique characteristics of the resident (e.g. ethnic, cultural, spiritual, social, educational, linguistic) and how these may influence mental health conversations.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware of the wide range of concepts, definitions and idioms of mental health, used by asylum seekers to communicate about their needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware that for many asylum seekers there is a strong connection between spirituality and mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be aware that the use of certain terms and labels can be stigmatising for asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 1  - Be knowledgeable about how cultural backgrounds can shape the understanding, experience and expression of mental health.</t>
+  </si>
+  <si>
     <t>CLUSTER 1  - Belong to the asylum seeker's culture and speak the language.</t>
   </si>
   <si>
-    <t>CLUSTER 1  - Avoid excessive culturalisation and a disproportionate emphasis on cultural influences and stereotypes, to the detriment of other important considerations during the conversation.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Acknowledge that cultural backgrounds and societal positions interact in determining mental health experiences.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Be aware that for many asylum seekers there is a strong connection between spirituality and mental health.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Be aware of the wide range of concepts, definitions and idioms of mental health, used by asylum seekers to communicate about their needs.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Encourage an in-depth exchange of views on mental health (care) and be committed to learning about asylum seekers’ views.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Understand and recognise common mental health challenges and their varied manifestations among asylum seekers.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Be aware of ethnocentrism</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Demonstrate openness to cultural differences and cultural humility.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Do not cast Western mental health categories as universal, avoiding the category fallacy.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Reflect on the influence and limitations of your own cultural context, views and biases.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Be aware of the unique characteristics of the resident (e.g. ethnic, cultural, spiritual, social, educational, linguistic) and how these may influence mental health conversations.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Be knowledgeable about how cultural backgrounds can shape the understanding, experience and expression of mental health.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Be aware that the use of certain terms and labels can be stigmatising for asylum seekers.</t>
-  </si>
-  <si>
-    <t>CLUSTER 1  - Check the cultural appropriateness of mental health assessment tools and interpret results with caution.</t>
+    <t>CLUSTER 10 - Collaborate with peer workers who share lived experiences with the residents.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Collaborate with people who can provide experience-based insights into cultural meanings and understandings of mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Navigate available services and know when and where to orientate asylum seekers in need of additional support.</t>
+  </si>
+  <si>
+    <t>CLUSTER 10 - Work in a network that addresses different areas of life, in the knowledge that a holistic, multi-sectoral approach is essential.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Be willing to bend and defy rules and regulations.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Check the asylum seekers’ consent to talk about certain issues, understanding that they may face barriers to having mental health conversations and disclosing mental health needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Communicate clearly about confidentiality and be transparent about its limits.</t>
+  </si>
+  <si>
+    <t>CLUSTER 11 - Respect the imperative of "do no harm" and the principles of ethical conduct.</t>
+  </si>
+  <si>
+    <t>CLUSTER 12 - Avoid eliciting detailed recounts of past experiences, and instead focus on the impact and resulting needs.</t>
+  </si>
+  <si>
+    <t>CLUSTER 12 - Understand that trauma affects memory and can lead to inconsistent narratives from asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 12 - Choose a place for the conversations that feels safe to the asylum seeker.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be compassionate.</t>
   </si>
   <si>
     <t>CLUSTER 2 - Show your humanity and approach asylum seekers as human beings with struggles, challenges, hopes and dreams similar to your own.</t>
   </si>
   <si>
+    <t>CLUSTER 2 - Show your willingness and availability to help.</t>
+  </si>
+  <si>
     <t>CLUSTER 2 - Spend time interacting with asylum seekers to understand their needs.</t>
   </si>
   <si>
+    <t>CLUSTER 2 - Be curious.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be empathic.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Be trustworthy and honest about your limitations and those of the system in which you operate.</t>
+  </si>
+  <si>
     <t>CLUSTER 2 - Demonstrate deep respect for asylum seekers, not judge them.</t>
   </si>
   <si>
+    <t>CLUSTER 2 - Establish a relationship that promotes safety and builds trust.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Establish rapport and working alliance.</t>
+  </si>
+  <si>
+    <t>CLUSTER 2 - Foster a safe and welcoming environment so that asylum seekers feel valued and understood.</t>
+  </si>
+  <si>
     <t>CLUSTER 2 - Look for ways to connect with the asylum seeker to create a basis for the conversation.</t>
   </si>
   <si>
-    <t>CLUSTER 2 - Show your willingness and availability to help.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Be compassionate.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Be empathic.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Be curious.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Establish a relationship that promotes safety and builds trust.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Establish rapport and working alliance.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Foster a safe and welcoming environment so that asylum seekers feel valued and understood.</t>
-  </si>
-  <si>
-    <t>CLUSTER 2 - Be trustworthy and honest about your limitations and those of the system in which you operate.</t>
+    <t>CLUSTER 3 - Accommodate communicative needs, barriers and limitations by including translators or multilingual colleagues in the conversation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Listen actively.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Be aware of language nuances and that things can get lost in translation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 3 - Pay attention to non-verbal communication.</t>
   </si>
   <si>
     <t>CLUSTER 3 - Ask open-ended questions.</t>
   </si>
   <si>
-    <t>CLUSTER 3 - Accommodate communicative needs, barriers and limitations by including translators or multilingual colleagues in the conversation.</t>
-  </si>
-  <si>
-    <t>CLUSTER 3 - Listen actively.</t>
-  </si>
-  <si>
-    <t>CLUSTER 3 - Be aware of language nuances and that things can get lost in translation.</t>
-  </si>
-  <si>
     <t>CLUSTER 3 - Conduct mental health conversations at a pace that is comfortable and tolerable for asylum seekers.</t>
   </si>
   <si>
-    <t>CLUSTER 3 - Pay attention to non-verbal communication.</t>
-  </si>
-  <si>
     <t>CLUSTER 3 - Adapt your communication style to suit the person and the situation at hand.</t>
   </si>
   <si>
+    <t>CLUSTER 4 - Avoid imposing your own views and approaches on asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Be committed to identifying and working with asylum seekers' preferred approaches and resources for managing mental health and reducing distress.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Centre the asylum seekers' voices and the priorities they highlight during the conversation, accepting that they may be different from your own.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Know that some behaviours require immediate professional attention to save lives.</t>
+  </si>
+  <si>
+    <t>CLUSTER 4 - Respond to immediate concerns.</t>
+  </si>
+  <si>
     <t>CLUSTER 4 - Take the lead from asylum seekers.</t>
   </si>
   <si>
-    <t>CLUSTER 4 - Be committed to identifying and working with asylum seekers' preferred approaches and resources for managing mental health and reducing distress.</t>
-  </si>
-  <si>
-    <t>CLUSTER 4 - Know that some behaviours require immediate professional attention to save lives.</t>
-  </si>
-  <si>
-    <t>CLUSTER 4 - Centre the asylum seekers' voices and the priorities they highlight during the conversation, accepting that they may be different from your own.</t>
-  </si>
-  <si>
-    <t>CLUSTER 4 - Respond to immediate concerns.</t>
-  </si>
-  <si>
-    <t>CLUSTER 4 - Avoid imposing your own views and approaches on asylum seekers.</t>
+    <t>CLUSTER 5 - Approach the conversation from a strength (resilience) perspective to address feelings of powerlessness and helplessness.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Build a bridge between the asylum seeker's perspective and experiences and the resources and services available.</t>
   </si>
   <si>
     <t>CLUSTER 5 - Encourage and enable asylum seekers to sustain existing relationships.</t>
   </si>
   <si>
+    <t>CLUSTER 5 - Explore what has sustained the asylum seekers through their experiences and identify together how they can continue to use and build on these resources.</t>
+  </si>
+  <si>
+    <t>CLUSTER 5 - Facilitate connections with relevant community resources and support networks, aiding in the integration and social support of residents.</t>
+  </si>
+  <si>
     <t>CLUSTER 5 - Know the wide range of mental health resources and how to promote resilience.</t>
   </si>
   <si>
-    <t>CLUSTER 5 - Approach the conversation from a strength (resilience) perspective to address feelings of powerlessness and helplessness.</t>
-  </si>
-  <si>
-    <t>CLUSTER 5 - Build a bridge between the asylum seeker's perspective and experiences and the resources and services available.</t>
-  </si>
-  <si>
-    <t>CLUSTER 5 - Explore what has sustained the asylum seekers through their experiences and identify together how they can continue to use and build on these resources.</t>
-  </si>
-  <si>
-    <t>CLUSTER 5 - Facilitate connections with relevant community resources and support networks, aiding in the integration and social support of residents.</t>
+    <t>CLUSTER 6 - Adopt a survivor-centred approach.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Know that even short conversations can be very significant.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Pay attention to mind-body connections and psychosomatic experiences and expressions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Provide assistance with practical challenges and accompany asylum seekers in meeting requirements.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Provide psychological first aid.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Understand the importance of family and a collective approach to help seeking.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Adopt a trauma-informed approach.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Be aware that mindfulness practices can help to gain some control over emotions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Blend insights and approaches from diverse cultures in ways that promote well-being.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Contextualise and normalise asylum seekers' mental health presentations, taking into account their specific situation and unique context.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Employ de-escalation techniques and support emotional regulation.</t>
+  </si>
+  <si>
+    <t>CLUSTER 6 - Implement protocols, approaches and interventions that are sensitive to cultural differences among asylum seekers.</t>
   </si>
   <si>
     <t>CLUSTER 6 - Initiate scalable psychological interventions.</t>
   </si>
   <si>
-    <t>CLUSTER 6 - Provide psychological first aid.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Adopt a survivor-centred approach.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Adopt a trauma-informed approach.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Be aware that mindfulness practices can help to gain some control over emotions.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Blend insights and approaches from diverse cultures in ways that promote well-being.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Employ de-escalation techniques and support emotional regulation.</t>
-  </si>
-  <si>
     <t>CLUSTER 6 - Know how to help prevent gender-based violence and child protection violations.</t>
   </si>
   <si>
-    <t>CLUSTER 6 - Pay attention to mind-body connections and psychosomatic experiences and expressions.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Understand the importance of family and a collective approach to help seeking.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Know that even short conversations can be very significant.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Provide assistance with practical challenges and accompany asylum seekers in meeting requirements.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Implement protocols, approaches and interventions that are sensitive to cultural differences among asylum seekers.</t>
-  </si>
-  <si>
-    <t>CLUSTER 6 - Contextualise and normalise asylum seekers' mental health presentations, taking into account their specific situation and unique context.</t>
+    <t>CLUSTER 7 - Be familiar with the basics of the asylum policy and procedure and have resources to help asylum seekers find answers to their questions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Consider pre-, peri- and post-migration stressors and their impact on mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Have an understanding of the context of displacement and (forced) migration, the kinds of situations that asylum seekers are likely to have been exposed to and how this may impact on mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 7 - Keep in mind that asylum seekers may have had to tell their story many times, sometimes in hostile circumstances.</t>
   </si>
   <si>
     <t>CLUSTER 7 - Realise that asylum seekers are typically struggling with a series of practical challenges that they need to solve before they are ready to address their mental health issues.</t>
   </si>
   <si>
+    <t>CLUSTER 7 - Realise that systemic and structural factors influence an individual's mental health capacity and needs.</t>
+  </si>
+  <si>
     <t>CLUSTER 7 - Realise that the organisational context and characteristics influence mental health conversations with asylum seekers.</t>
   </si>
   <si>
     <t>CLUSTER 7 - Recognise that asylum applications and procedures evoke strong emotions.</t>
   </si>
   <si>
-    <t>CLUSTER 7 - Consider pre-, peri- and post-migration stressors and their impact on mental health.</t>
-  </si>
-  <si>
-    <t>CLUSTER 7 - Be familiar with the basics of the asylum policy and procedure and have resources to help asylum seekers find answers to their questions.</t>
-  </si>
-  <si>
-    <t>CLUSTER 7 - Keep in mind that asylum seekers may have had to tell their story many times, sometimes in hostile circumstances.</t>
-  </si>
-  <si>
-    <t>CLUSTER 7 - Realise that systemic and structural factors influence an individual's mental health capacity and needs.</t>
-  </si>
-  <si>
-    <t>CLUSTER 7 - Have an understanding of the context of displacement and (forced) migration, the kinds of situations that asylum seekers are likely to have been exposed to and how this may impact on mental health.</t>
-  </si>
-  <si>
     <t>CLUSTER 7 - Understand that current living conditions and experiences can trigger and exacerbate mental health challenges.</t>
   </si>
   <si>
     <t>CLUSTER 8 - Express support for the resident’s asylum claim.</t>
   </si>
   <si>
+    <t>CLUSTER 8 - Identify and acknowledge injustices faced by asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Identify barriers that may prevent asylum seekers from benefiting from particular approaches, interventions and treatments.</t>
+  </si>
+  <si>
+    <t>CLUSTER 8 - Mitigate power inequalities in the relationship and show your commitment to equity.</t>
+  </si>
+  <si>
     <t>CLUSTER 8 - Recognise and resist oppressive government policies and measures.</t>
   </si>
   <si>
-    <t>CLUSTER 8 - Mitigate power inequalities in the relationship and show your commitment to equity.</t>
-  </si>
-  <si>
     <t>CLUSTER 8 - Safeguard human rights and social justice.</t>
   </si>
   <si>
-    <t>CLUSTER 8 - Identify and acknowledge injustices faced by asylum seekers.</t>
-  </si>
-  <si>
-    <t>CLUSTER 8 - Identify barriers that may prevent asylum seekers from benefiting from particular approaches, interventions and treatments.</t>
+    <t>CLUSTER 9 - Be aware of the fact that this work implicitly or explicitly has an impact on the way you perceive political debate.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Be mindful of not abusing your power.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Be prepared to tolerate strong emotions.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Commit to ongoing professional development, be open to learning from your work and to be supported in reflecting on your mental health conversations with asylum seekers.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Engage in self-care and well-being practices, to take care of your own mental health.</t>
+  </si>
+  <si>
+    <t>CLUSTER 9 - Reflect on the influence of your own life history and experiences.</t>
   </si>
   <si>
     <t>CLUSTER 9 - Tolerate feelings of powerlessness and helplessness due to lack of immediate solutions.</t>
   </si>
   <si>
-    <t>CLUSTER 9 - Be aware of the fact that this work implicitly or explicitly has an impact on the way you perceive political debate.</t>
-  </si>
-  <si>
-    <t>CLUSTER 9 - Be prepared to tolerate strong emotions.</t>
-  </si>
-  <si>
-    <t>CLUSTER 9 - Engage in self-care and well-being practices, to take care of your own mental health.</t>
-  </si>
-  <si>
-    <t>CLUSTER 9 - Commit to ongoing professional development, be open to learning from your work and to be supported in reflecting on your mental health conversations with asylum seekers.</t>
-  </si>
-  <si>
-    <t>CLUSTER 9 - Reflect on the influence of your own life history and experiences.</t>
-  </si>
-  <si>
-    <t>CLUSTER 9 - Be mindful of not abusing your power.</t>
-  </si>
-  <si>
-    <t>CLUSTER 10 - Collaborate with peer workers who share lived experiences with the residents.</t>
-  </si>
-  <si>
-    <t>CLUSTER 10 - Collaborate with people who can provide experience-based insights into cultural meanings and understandings of mental health.</t>
-  </si>
-  <si>
-    <t>CLUSTER 10 - Work in a network that addresses different areas of life, in the knowledge that a holistic, multi-sectoral approach is essential.</t>
-  </si>
-  <si>
-    <t>CLUSTER 10 - Navigate available services and know when and where to orientate asylum seekers in need of additional support.</t>
-  </si>
-  <si>
-    <t>CLUSTER 11 - Be willing to bend and defy rules and regulations.</t>
-  </si>
-  <si>
-    <t>CLUSTER 11 - Check the asylum seekers’ consent to talk about certain issues, understanding that they may face barriers to having mental health conversations and disclosing mental health needs.</t>
-  </si>
-  <si>
-    <t>CLUSTER 11 - Communicate clearly about confidentiality and be transparent about its limits.</t>
-  </si>
-  <si>
-    <t>CLUSTER 11 - Respect the imperative of "do no harm" and the principles of ethical conduct.</t>
-  </si>
-  <si>
-    <t>CLUSTER 12 - Avoid eliciting detailed recounts of past experiences, and instead focus on the impact and resulting needs.</t>
-  </si>
-  <si>
-    <t>CLUSTER 12 - Understand that trauma affects memory and can lead to inconsistent narratives from asylum seekers.</t>
-  </si>
-  <si>
-    <t>CLUSTER 12 - Choose a place for the conversations that feels safe to the asylum seeker.</t>
-  </si>
-  <si>
     <t>I agree</t>
+  </si>
+  <si>
+    <t>I agree if modified</t>
+  </si>
+  <si>
+    <t>I disagree</t>
   </si>
 </sst>
 </file>
@@ -991,22 +1438,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F2" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="3">
@@ -1014,22 +1461,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15384615384615385</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="4">
@@ -1037,22 +1484,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F4" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.037037037037037035</v>
       </c>
     </row>
     <row r="5">
@@ -1060,22 +1507,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>354</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F5" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="6">
@@ -1083,22 +1530,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>354</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F6" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.038461538461538464</v>
       </c>
     </row>
     <row r="7">
@@ -1106,22 +1553,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="8">
@@ -1129,22 +1576,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="9">
@@ -1152,22 +1599,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F9" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="10">
@@ -1175,22 +1622,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F10" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="11">
@@ -1198,22 +1645,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
       <c r="E11" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F11" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="12">
@@ -1221,22 +1668,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>357</v>
       </c>
       <c r="E12" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F12" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="13">
@@ -1244,22 +1691,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F13" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="14">
@@ -1267,22 +1714,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F14" t="n">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="15">
@@ -1290,22 +1737,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>358</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F15" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="16">
@@ -1313,22 +1760,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F16" t="n">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="17">
@@ -1336,22 +1783,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F17" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="18">
@@ -1359,22 +1806,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="E18" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F18" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="19">
@@ -1382,22 +1829,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>359</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F19" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.038461538461538464</v>
       </c>
     </row>
     <row r="20">
@@ -1405,22 +1852,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F20" t="n">
         <v>22.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="21">
@@ -1428,22 +1875,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="E21" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F21" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="22">
@@ -1451,22 +1898,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>360</v>
       </c>
       <c r="E22" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F22" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="23">
@@ -1474,22 +1921,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>361</v>
       </c>
       <c r="E23" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F23" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="24">
@@ -1497,22 +1944,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F24" t="n">
-        <v>25.0</v>
+        <v>8.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="25">
@@ -1520,22 +1967,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F25" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="26">
@@ -1543,22 +1990,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F26" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="27">
@@ -1566,22 +2013,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F27" t="n">
-        <v>26.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="28">
@@ -1589,22 +2036,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F28" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.038461538461538464</v>
       </c>
     </row>
     <row r="29">
@@ -1612,22 +2059,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>363</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F29" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="30">
@@ -1635,22 +2082,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>363</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F30" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="31">
@@ -1658,22 +2105,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="E31" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F31" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="32">
@@ -1681,22 +2128,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F32" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="33">
@@ -1704,22 +2151,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>364</v>
       </c>
       <c r="E33" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F33" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="34">
@@ -1727,22 +2174,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F34" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="35">
@@ -1750,22 +2197,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F35" t="n">
-        <v>26.0</v>
+        <v>4.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="36">
@@ -1773,22 +2220,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="E36" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F36" t="n">
-        <v>26.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="37">
@@ -1796,22 +2243,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F37" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="38">
@@ -1819,22 +2266,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="D38" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F38" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.038461538461538464</v>
       </c>
     </row>
     <row r="39">
@@ -1842,22 +2289,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F39" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.038461538461538464</v>
       </c>
     </row>
     <row r="40">
@@ -1865,22 +2312,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F40" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="41">
@@ -1888,22 +2335,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F41" t="n">
-        <v>22.0</v>
+        <v>3.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.11538461538461539</v>
       </c>
     </row>
     <row r="42">
@@ -1911,22 +2358,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="E42" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F42" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="43">
@@ -1934,22 +2381,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>368</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F43" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="44">
@@ -1957,22 +2404,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F44" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5769230769230769</v>
       </c>
     </row>
     <row r="45">
@@ -1980,22 +2427,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="E45" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F45" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="46">
@@ -2003,22 +2450,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F46" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +2473,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F47" t="n">
-        <v>25.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="48">
@@ -2049,22 +2496,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F48" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49">
@@ -2072,22 +2519,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="E49" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F49" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="50">
@@ -2095,22 +2542,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F50" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="51">
@@ -2118,22 +2565,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
       <c r="E51" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F51" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="52">
@@ -2141,22 +2588,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
       <c r="E52" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F52" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="53">
@@ -2164,22 +2611,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F53" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -2187,22 +2634,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F54" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="55">
@@ -2210,22 +2657,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="E55" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F55" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="56">
@@ -2233,22 +2680,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
       <c r="E56" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F56" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2256,22 +2703,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F57" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="58">
@@ -2279,22 +2726,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="E58" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F58" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59">
@@ -2302,22 +2749,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
       <c r="E59" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F59" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="60">
@@ -2325,22 +2772,22 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="E60" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F60" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -2348,22 +2795,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="E61" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F61" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="62">
@@ -2371,22 +2818,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>375</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F62" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="63">
@@ -2394,22 +2841,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F63" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="64">
@@ -2417,22 +2864,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F64" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="65">
@@ -2440,22 +2887,22 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="D65" t="s">
-        <v>269</v>
+        <v>377</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F65" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="66">
@@ -2463,22 +2910,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F66" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="67">
@@ -2486,22 +2933,22 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="E67" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F67" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="68">
@@ -2509,22 +2956,22 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>378</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F68" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="69">
@@ -2532,22 +2979,22 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>379</v>
       </c>
       <c r="E69" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F69" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="70">
@@ -2555,22 +3002,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="E70" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F70" t="n">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.041666666666666664</v>
       </c>
     </row>
     <row r="71">
@@ -2578,22 +3025,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F71" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="G71" t="n">
-        <v>1.0</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="72">
@@ -2601,22 +3048,22 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>286</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="E72" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F72" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.037037037037037035</v>
       </c>
     </row>
     <row r="73">
@@ -2624,22 +3071,22 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
       <c r="E73" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F73" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.037037037037037035</v>
       </c>
     </row>
     <row r="74">
@@ -2647,22 +3094,22 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F74" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="75">
@@ -2670,22 +3117,22 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F75" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="76">
@@ -2693,22 +3140,22 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F76" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="77">
@@ -2716,22 +3163,22 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F77" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.0</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="78">
@@ -2739,22 +3186,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="E78" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F78" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.625</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="79">
@@ -2762,22 +3209,22 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="D79" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="E79" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F79" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="80">
@@ -2785,22 +3232,22 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F80" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="81">
@@ -2808,22 +3255,22 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s">
-        <v>285</v>
+        <v>383</v>
       </c>
       <c r="E81" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F81" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="82">
@@ -2831,22 +3278,22 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="D82" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F82" t="n">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="83">
@@ -2854,22 +3301,22 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
+        <v>384</v>
       </c>
       <c r="E83" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F83" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="84">
@@ -2877,22 +3324,22 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="E84" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F84" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.037037037037037035</v>
       </c>
     </row>
     <row r="85">
@@ -2900,22 +3347,22 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="E85" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F85" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.75</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="86">
@@ -2923,22 +3370,22 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="E86" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F86" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.875</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="87">
@@ -2946,22 +3393,22 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F87" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.875</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -2969,22 +3416,22 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="D88" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F88" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8148148148148148</v>
       </c>
     </row>
     <row r="89">
@@ -2992,22 +3439,22 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>293</v>
+        <v>387</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F89" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.20833333333333334</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="90">
@@ -3015,22 +3462,22 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="D90" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="E90" t="s">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="F90" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.875</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="91">
@@ -3038,22 +3485,22 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="D91" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F91" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="92">
@@ -3061,22 +3508,22 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
-        <v>296</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F92" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.037037037037037035</v>
       </c>
     </row>
     <row r="93">
@@ -3084,22 +3531,22 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="D93" t="s">
-        <v>297</v>
+        <v>389</v>
       </c>
       <c r="E93" t="s">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="F93" t="n">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="94">
@@ -3107,22 +3554,22 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="E94" t="s">
-        <v>300</v>
+        <v>448</v>
       </c>
       <c r="F94" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.037037037037037035</v>
       </c>
     </row>
     <row r="95">
@@ -3130,22 +3577,3403 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s">
+        <v>296</v>
+      </c>
+      <c r="D95" t="s">
+        <v>390</v>
+      </c>
+      <c r="E95" t="s">
+        <v>447</v>
+      </c>
+      <c r="F95" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" t="s">
+        <v>390</v>
+      </c>
+      <c r="E96" t="s">
+        <v>448</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" t="s">
+        <v>297</v>
+      </c>
+      <c r="D97" t="s">
+        <v>391</v>
+      </c>
+      <c r="E97" t="s">
+        <v>447</v>
+      </c>
+      <c r="F97" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" t="s">
+        <v>297</v>
+      </c>
+      <c r="D98" t="s">
+        <v>391</v>
+      </c>
+      <c r="E98" t="s">
+        <v>448</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" t="s">
+        <v>391</v>
+      </c>
+      <c r="E99" t="s">
+        <v>449</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>252</v>
+      </c>
+      <c r="C100" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100" t="s">
+        <v>447</v>
+      </c>
+      <c r="F100" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" t="s">
+        <v>392</v>
+      </c>
+      <c r="E101" t="s">
+        <v>448</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" t="s">
+        <v>392</v>
+      </c>
+      <c r="E102" t="s">
+        <v>449</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" t="s">
+        <v>393</v>
+      </c>
+      <c r="E103" t="s">
+        <v>447</v>
+      </c>
+      <c r="F103" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" t="s">
+        <v>393</v>
+      </c>
+      <c r="E104" t="s">
+        <v>448</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>252</v>
+      </c>
+      <c r="C105" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" t="s">
+        <v>393</v>
+      </c>
+      <c r="E105" t="s">
+        <v>449</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" t="s">
+        <v>394</v>
+      </c>
+      <c r="E106" t="s">
+        <v>447</v>
+      </c>
+      <c r="F106" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8518518518518519</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
         <v>111</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B107" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" t="s">
+        <v>300</v>
+      </c>
+      <c r="D107" t="s">
+        <v>394</v>
+      </c>
+      <c r="E107" t="s">
+        <v>448</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>252</v>
+      </c>
+      <c r="C108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>394</v>
+      </c>
+      <c r="E108" t="s">
+        <v>449</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" t="s">
+        <v>301</v>
+      </c>
+      <c r="D109" t="s">
+        <v>395</v>
+      </c>
+      <c r="E109" t="s">
+        <v>447</v>
+      </c>
+      <c r="F109" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" t="s">
+        <v>395</v>
+      </c>
+      <c r="E110" t="s">
+        <v>448</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" t="s">
+        <v>396</v>
+      </c>
+      <c r="E111" t="s">
+        <v>447</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.7037037037037037</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" t="s">
+        <v>302</v>
+      </c>
+      <c r="D112" t="s">
+        <v>396</v>
+      </c>
+      <c r="E112" t="s">
+        <v>448</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>302</v>
+      </c>
+      <c r="D113" t="s">
+        <v>396</v>
+      </c>
+      <c r="E113" t="s">
+        <v>449</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" t="s">
+        <v>397</v>
+      </c>
+      <c r="E114" t="s">
+        <v>447</v>
+      </c>
+      <c r="F114" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" t="s">
+        <v>397</v>
+      </c>
+      <c r="E115" t="s">
+        <v>448</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>303</v>
+      </c>
+      <c r="D116" t="s">
+        <v>397</v>
+      </c>
+      <c r="E116" t="s">
+        <v>449</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" t="s">
+        <v>398</v>
+      </c>
+      <c r="E117" t="s">
+        <v>447</v>
+      </c>
+      <c r="F117" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>252</v>
+      </c>
+      <c r="C118" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>398</v>
+      </c>
+      <c r="E118" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" t="s">
+        <v>399</v>
+      </c>
+      <c r="E119" t="s">
+        <v>447</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" t="s">
+        <v>305</v>
+      </c>
+      <c r="D120" t="s">
+        <v>399</v>
+      </c>
+      <c r="E120" t="s">
+        <v>448</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" t="s">
+        <v>305</v>
+      </c>
+      <c r="D121" t="s">
+        <v>399</v>
+      </c>
+      <c r="E121" t="s">
+        <v>449</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" t="s">
+        <v>400</v>
+      </c>
+      <c r="E122" t="s">
+        <v>447</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" t="s">
+        <v>306</v>
+      </c>
+      <c r="D123" t="s">
+        <v>400</v>
+      </c>
+      <c r="E123" t="s">
+        <v>448</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s">
+        <v>306</v>
+      </c>
+      <c r="D124" t="s">
+        <v>400</v>
+      </c>
+      <c r="E124" t="s">
+        <v>449</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" t="s">
+        <v>307</v>
+      </c>
+      <c r="D125" t="s">
+        <v>401</v>
+      </c>
+      <c r="E125" t="s">
+        <v>447</v>
+      </c>
+      <c r="F125" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>401</v>
+      </c>
+      <c r="E126" t="s">
+        <v>448</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" t="s">
+        <v>401</v>
+      </c>
+      <c r="E127" t="s">
+        <v>449</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" t="s">
+        <v>402</v>
+      </c>
+      <c r="E128" t="s">
+        <v>447</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" t="s">
+        <v>402</v>
+      </c>
+      <c r="E129" t="s">
+        <v>448</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.18518518518518517</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" t="s">
+        <v>402</v>
+      </c>
+      <c r="E130" t="s">
+        <v>449</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" t="s">
+        <v>309</v>
+      </c>
+      <c r="D131" t="s">
+        <v>403</v>
+      </c>
+      <c r="E131" t="s">
+        <v>447</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" t="s">
+        <v>403</v>
+      </c>
+      <c r="E132" t="s">
+        <v>448</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133" t="s">
+        <v>253</v>
+      </c>
+      <c r="C133" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" t="s">
+        <v>403</v>
+      </c>
+      <c r="E133" t="s">
+        <v>449</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.037037037037037035</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" t="s">
+        <v>310</v>
+      </c>
+      <c r="D134" t="s">
+        <v>404</v>
+      </c>
+      <c r="E134" t="s">
+        <v>447</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C135" t="s">
+        <v>310</v>
+      </c>
+      <c r="D135" t="s">
+        <v>404</v>
+      </c>
+      <c r="E135" t="s">
+        <v>448</v>
+      </c>
+      <c r="F135" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.48148148148148145</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" t="s">
+        <v>404</v>
+      </c>
+      <c r="E136" t="s">
+        <v>449</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" t="s">
+        <v>311</v>
+      </c>
+      <c r="D137" t="s">
+        <v>405</v>
+      </c>
+      <c r="E137" t="s">
+        <v>447</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" t="s">
+        <v>254</v>
+      </c>
+      <c r="C138" t="s">
+        <v>311</v>
+      </c>
+      <c r="D138" t="s">
+        <v>405</v>
+      </c>
+      <c r="E138" t="s">
+        <v>448</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>254</v>
+      </c>
+      <c r="C139" t="s">
+        <v>311</v>
+      </c>
+      <c r="D139" t="s">
+        <v>405</v>
+      </c>
+      <c r="E139" t="s">
+        <v>449</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" t="s">
+        <v>254</v>
+      </c>
+      <c r="C140" t="s">
+        <v>312</v>
+      </c>
+      <c r="D140" t="s">
+        <v>406</v>
+      </c>
+      <c r="E140" t="s">
+        <v>447</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C141" t="s">
+        <v>312</v>
+      </c>
+      <c r="D141" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141" t="s">
+        <v>448</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" t="s">
+        <v>407</v>
+      </c>
+      <c r="E142" t="s">
+        <v>447</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>313</v>
+      </c>
+      <c r="D143" t="s">
+        <v>407</v>
+      </c>
+      <c r="E143" t="s">
+        <v>448</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
+        <v>313</v>
+      </c>
+      <c r="D144" t="s">
+        <v>407</v>
+      </c>
+      <c r="E144" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>254</v>
+      </c>
+      <c r="C145" t="s">
+        <v>314</v>
+      </c>
+      <c r="D145" t="s">
+        <v>408</v>
+      </c>
+      <c r="E145" t="s">
+        <v>447</v>
+      </c>
+      <c r="F145" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" t="s">
+        <v>314</v>
+      </c>
+      <c r="D146" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" t="s">
+        <v>448</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" t="s">
+        <v>315</v>
+      </c>
+      <c r="D147" t="s">
+        <v>409</v>
+      </c>
+      <c r="E147" t="s">
+        <v>447</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D148" t="s">
+        <v>409</v>
+      </c>
+      <c r="E148" t="s">
+        <v>448</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" t="s">
+        <v>316</v>
+      </c>
+      <c r="D149" t="s">
+        <v>410</v>
+      </c>
+      <c r="E149" t="s">
+        <v>447</v>
+      </c>
+      <c r="F149" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D150" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150" t="s">
+        <v>448</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" t="s">
+        <v>316</v>
+      </c>
+      <c r="D151" t="s">
+        <v>410</v>
+      </c>
+      <c r="E151" t="s">
+        <v>449</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152" t="s">
+        <v>255</v>
+      </c>
+      <c r="C152" t="s">
+        <v>317</v>
+      </c>
+      <c r="D152" t="s">
+        <v>411</v>
+      </c>
+      <c r="E152" t="s">
+        <v>447</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" t="s">
+        <v>317</v>
+      </c>
+      <c r="D153" t="s">
+        <v>411</v>
+      </c>
+      <c r="E153" t="s">
+        <v>448</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" t="s">
+        <v>255</v>
+      </c>
+      <c r="C154" t="s">
+        <v>317</v>
+      </c>
+      <c r="D154" t="s">
+        <v>411</v>
+      </c>
+      <c r="E154" t="s">
+        <v>449</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" t="s">
+        <v>318</v>
+      </c>
+      <c r="D155" t="s">
+        <v>412</v>
+      </c>
+      <c r="E155" t="s">
+        <v>447</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" t="s">
+        <v>318</v>
+      </c>
+      <c r="D156" t="s">
+        <v>412</v>
+      </c>
+      <c r="E156" t="s">
+        <v>448</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" t="s">
+        <v>412</v>
+      </c>
+      <c r="E157" t="s">
+        <v>449</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158" t="s">
+        <v>413</v>
+      </c>
+      <c r="E158" t="s">
+        <v>447</v>
+      </c>
+      <c r="F158" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" t="s">
+        <v>319</v>
+      </c>
+      <c r="D159" t="s">
+        <v>413</v>
+      </c>
+      <c r="E159" t="s">
+        <v>448</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="s">
+        <v>255</v>
+      </c>
+      <c r="C160" t="s">
+        <v>319</v>
+      </c>
+      <c r="D160" t="s">
+        <v>413</v>
+      </c>
+      <c r="E160" t="s">
+        <v>449</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>255</v>
+      </c>
+      <c r="C161" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" t="s">
+        <v>414</v>
+      </c>
+      <c r="E161" t="s">
+        <v>447</v>
+      </c>
+      <c r="F161" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>255</v>
+      </c>
+      <c r="C162" t="s">
+        <v>320</v>
+      </c>
+      <c r="D162" t="s">
+        <v>414</v>
+      </c>
+      <c r="E162" t="s">
+        <v>448</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="s">
+        <v>255</v>
+      </c>
+      <c r="C163" t="s">
+        <v>320</v>
+      </c>
+      <c r="D163" t="s">
+        <v>414</v>
+      </c>
+      <c r="E163" t="s">
+        <v>449</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" t="s">
+        <v>321</v>
+      </c>
+      <c r="D164" t="s">
+        <v>415</v>
+      </c>
+      <c r="E164" t="s">
+        <v>447</v>
+      </c>
+      <c r="F164" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" t="s">
+        <v>321</v>
+      </c>
+      <c r="D165" t="s">
+        <v>415</v>
+      </c>
+      <c r="E165" t="s">
+        <v>448</v>
+      </c>
+      <c r="F165" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>255</v>
+      </c>
+      <c r="C166" t="s">
+        <v>321</v>
+      </c>
+      <c r="D166" t="s">
+        <v>415</v>
+      </c>
+      <c r="E166" t="s">
+        <v>449</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>255</v>
+      </c>
+      <c r="C167" t="s">
+        <v>322</v>
+      </c>
+      <c r="D167" t="s">
+        <v>416</v>
+      </c>
+      <c r="E167" t="s">
+        <v>447</v>
+      </c>
+      <c r="F167" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>255</v>
+      </c>
+      <c r="C168" t="s">
+        <v>322</v>
+      </c>
+      <c r="D168" t="s">
+        <v>416</v>
+      </c>
+      <c r="E168" t="s">
+        <v>448</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>255</v>
+      </c>
+      <c r="C169" t="s">
+        <v>323</v>
+      </c>
+      <c r="D169" t="s">
+        <v>417</v>
+      </c>
+      <c r="E169" t="s">
+        <v>447</v>
+      </c>
+      <c r="F169" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>255</v>
+      </c>
+      <c r="C170" t="s">
+        <v>323</v>
+      </c>
+      <c r="D170" t="s">
+        <v>417</v>
+      </c>
+      <c r="E170" t="s">
+        <v>448</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>255</v>
+      </c>
+      <c r="C171" t="s">
+        <v>323</v>
+      </c>
+      <c r="D171" t="s">
+        <v>417</v>
+      </c>
+      <c r="E171" t="s">
+        <v>449</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" t="s">
+        <v>324</v>
+      </c>
+      <c r="D172" t="s">
+        <v>418</v>
+      </c>
+      <c r="E172" t="s">
+        <v>447</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
+        <v>255</v>
+      </c>
+      <c r="C173" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" t="s">
+        <v>418</v>
+      </c>
+      <c r="E173" t="s">
+        <v>448</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>255</v>
+      </c>
+      <c r="C174" t="s">
+        <v>324</v>
+      </c>
+      <c r="D174" t="s">
+        <v>418</v>
+      </c>
+      <c r="E174" t="s">
+        <v>449</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>255</v>
+      </c>
+      <c r="C175" t="s">
+        <v>325</v>
+      </c>
+      <c r="D175" t="s">
+        <v>419</v>
+      </c>
+      <c r="E175" t="s">
+        <v>447</v>
+      </c>
+      <c r="F175" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176" t="s">
+        <v>255</v>
+      </c>
+      <c r="C176" t="s">
+        <v>325</v>
+      </c>
+      <c r="D176" t="s">
+        <v>419</v>
+      </c>
+      <c r="E176" t="s">
+        <v>448</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177" t="s">
+        <v>255</v>
+      </c>
+      <c r="C177" t="s">
+        <v>325</v>
+      </c>
+      <c r="D177" t="s">
+        <v>419</v>
+      </c>
+      <c r="E177" t="s">
+        <v>449</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" t="s">
+        <v>255</v>
+      </c>
+      <c r="C178" t="s">
+        <v>326</v>
+      </c>
+      <c r="D178" t="s">
+        <v>420</v>
+      </c>
+      <c r="E178" t="s">
+        <v>447</v>
+      </c>
+      <c r="F178" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179" t="s">
+        <v>326</v>
+      </c>
+      <c r="D179" t="s">
+        <v>420</v>
+      </c>
+      <c r="E179" t="s">
+        <v>448</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180" t="s">
+        <v>255</v>
+      </c>
+      <c r="C180" t="s">
+        <v>327</v>
+      </c>
+      <c r="D180" t="s">
+        <v>421</v>
+      </c>
+      <c r="E180" t="s">
+        <v>447</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181" t="s">
+        <v>255</v>
+      </c>
+      <c r="C181" t="s">
+        <v>327</v>
+      </c>
+      <c r="D181" t="s">
+        <v>421</v>
+      </c>
+      <c r="E181" t="s">
+        <v>448</v>
+      </c>
+      <c r="F181" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" t="s">
+        <v>327</v>
+      </c>
+      <c r="D182" t="s">
+        <v>421</v>
+      </c>
+      <c r="E182" t="s">
+        <v>449</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" t="s">
+        <v>255</v>
+      </c>
+      <c r="C183" t="s">
+        <v>328</v>
+      </c>
+      <c r="D183" t="s">
+        <v>422</v>
+      </c>
+      <c r="E183" t="s">
+        <v>447</v>
+      </c>
+      <c r="F183" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>255</v>
+      </c>
+      <c r="C184" t="s">
+        <v>328</v>
+      </c>
+      <c r="D184" t="s">
+        <v>422</v>
+      </c>
+      <c r="E184" t="s">
+        <v>448</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" t="s">
+        <v>255</v>
+      </c>
+      <c r="C185" t="s">
+        <v>328</v>
+      </c>
+      <c r="D185" t="s">
+        <v>422</v>
+      </c>
+      <c r="E185" t="s">
+        <v>449</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" t="s">
+        <v>255</v>
+      </c>
+      <c r="C186" t="s">
+        <v>329</v>
+      </c>
+      <c r="D186" t="s">
+        <v>423</v>
+      </c>
+      <c r="E186" t="s">
+        <v>447</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" t="s">
+        <v>255</v>
+      </c>
+      <c r="C187" t="s">
+        <v>329</v>
+      </c>
+      <c r="D187" t="s">
+        <v>423</v>
+      </c>
+      <c r="E187" t="s">
+        <v>448</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" t="s">
+        <v>255</v>
+      </c>
+      <c r="C188" t="s">
+        <v>329</v>
+      </c>
+      <c r="D188" t="s">
+        <v>423</v>
+      </c>
+      <c r="E188" t="s">
+        <v>449</v>
+      </c>
+      <c r="F188" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" t="s">
+        <v>255</v>
+      </c>
+      <c r="C189" t="s">
+        <v>330</v>
+      </c>
+      <c r="D189" t="s">
+        <v>424</v>
+      </c>
+      <c r="E189" t="s">
+        <v>447</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" t="s">
+        <v>255</v>
+      </c>
+      <c r="C190" t="s">
+        <v>330</v>
+      </c>
+      <c r="D190" t="s">
+        <v>424</v>
+      </c>
+      <c r="E190" t="s">
+        <v>448</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" t="s">
+        <v>256</v>
+      </c>
+      <c r="C191" t="s">
+        <v>331</v>
+      </c>
+      <c r="D191" t="s">
+        <v>425</v>
+      </c>
+      <c r="E191" t="s">
+        <v>447</v>
+      </c>
+      <c r="F191" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" t="s">
+        <v>256</v>
+      </c>
+      <c r="C192" t="s">
+        <v>331</v>
+      </c>
+      <c r="D192" t="s">
+        <v>425</v>
+      </c>
+      <c r="E192" t="s">
+        <v>448</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" t="s">
+        <v>256</v>
+      </c>
+      <c r="C193" t="s">
+        <v>332</v>
+      </c>
+      <c r="D193" t="s">
+        <v>426</v>
+      </c>
+      <c r="E193" t="s">
+        <v>447</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" t="s">
+        <v>256</v>
+      </c>
+      <c r="C194" t="s">
+        <v>332</v>
+      </c>
+      <c r="D194" t="s">
+        <v>426</v>
+      </c>
+      <c r="E194" t="s">
+        <v>448</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" t="s">
+        <v>256</v>
+      </c>
+      <c r="C195" t="s">
+        <v>333</v>
+      </c>
+      <c r="D195" t="s">
+        <v>427</v>
+      </c>
+      <c r="E195" t="s">
+        <v>447</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>256</v>
+      </c>
+      <c r="C196" t="s">
+        <v>333</v>
+      </c>
+      <c r="D196" t="s">
+        <v>427</v>
+      </c>
+      <c r="E196" t="s">
+        <v>448</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" t="s">
+        <v>256</v>
+      </c>
+      <c r="C197" t="s">
+        <v>334</v>
+      </c>
+      <c r="D197" t="s">
+        <v>428</v>
+      </c>
+      <c r="E197" t="s">
+        <v>447</v>
+      </c>
+      <c r="F197" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" t="s">
+        <v>256</v>
+      </c>
+      <c r="C198" t="s">
+        <v>334</v>
+      </c>
+      <c r="D198" t="s">
+        <v>428</v>
+      </c>
+      <c r="E198" t="s">
+        <v>448</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" t="s">
+        <v>256</v>
+      </c>
+      <c r="C199" t="s">
+        <v>335</v>
+      </c>
+      <c r="D199" t="s">
+        <v>429</v>
+      </c>
+      <c r="E199" t="s">
+        <v>447</v>
+      </c>
+      <c r="F199" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>256</v>
+      </c>
+      <c r="C200" t="s">
+        <v>335</v>
+      </c>
+      <c r="D200" t="s">
+        <v>429</v>
+      </c>
+      <c r="E200" t="s">
+        <v>448</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.2692307692307692</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
         <v>205</v>
       </c>
-      <c r="D95" t="s">
-        <v>299</v>
-      </c>
-      <c r="E95" t="s">
-        <v>300</v>
-      </c>
-      <c r="F95" t="n">
+      <c r="B201" t="s">
+        <v>256</v>
+      </c>
+      <c r="C201" t="s">
+        <v>336</v>
+      </c>
+      <c r="D201" t="s">
+        <v>430</v>
+      </c>
+      <c r="E201" t="s">
+        <v>447</v>
+      </c>
+      <c r="F201" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>256</v>
+      </c>
+      <c r="C202" t="s">
+        <v>336</v>
+      </c>
+      <c r="D202" t="s">
+        <v>430</v>
+      </c>
+      <c r="E202" t="s">
+        <v>448</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" t="s">
+        <v>256</v>
+      </c>
+      <c r="C203" t="s">
+        <v>336</v>
+      </c>
+      <c r="D203" t="s">
+        <v>430</v>
+      </c>
+      <c r="E203" t="s">
+        <v>449</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>256</v>
+      </c>
+      <c r="C204" t="s">
+        <v>337</v>
+      </c>
+      <c r="D204" t="s">
+        <v>431</v>
+      </c>
+      <c r="E204" t="s">
+        <v>447</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" t="s">
+        <v>256</v>
+      </c>
+      <c r="C205" t="s">
+        <v>337</v>
+      </c>
+      <c r="D205" t="s">
+        <v>431</v>
+      </c>
+      <c r="E205" t="s">
+        <v>448</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" t="s">
+        <v>256</v>
+      </c>
+      <c r="C206" t="s">
+        <v>337</v>
+      </c>
+      <c r="D206" t="s">
+        <v>431</v>
+      </c>
+      <c r="E206" t="s">
+        <v>449</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" t="s">
+        <v>256</v>
+      </c>
+      <c r="C207" t="s">
+        <v>338</v>
+      </c>
+      <c r="D207" t="s">
+        <v>432</v>
+      </c>
+      <c r="E207" t="s">
+        <v>447</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" t="s">
+        <v>256</v>
+      </c>
+      <c r="C208" t="s">
+        <v>338</v>
+      </c>
+      <c r="D208" t="s">
+        <v>432</v>
+      </c>
+      <c r="E208" t="s">
+        <v>448</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" t="s">
+        <v>256</v>
+      </c>
+      <c r="C209" t="s">
+        <v>338</v>
+      </c>
+      <c r="D209" t="s">
+        <v>432</v>
+      </c>
+      <c r="E209" t="s">
+        <v>449</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" t="s">
+        <v>256</v>
+      </c>
+      <c r="C210" t="s">
+        <v>339</v>
+      </c>
+      <c r="D210" t="s">
+        <v>433</v>
+      </c>
+      <c r="E210" t="s">
+        <v>447</v>
+      </c>
+      <c r="F210" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" t="s">
+        <v>257</v>
+      </c>
+      <c r="C211" t="s">
+        <v>340</v>
+      </c>
+      <c r="D211" t="s">
+        <v>434</v>
+      </c>
+      <c r="E211" t="s">
+        <v>447</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.4230769230769231</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" t="s">
+        <v>257</v>
+      </c>
+      <c r="C212" t="s">
+        <v>340</v>
+      </c>
+      <c r="D212" t="s">
+        <v>434</v>
+      </c>
+      <c r="E212" t="s">
+        <v>448</v>
+      </c>
+      <c r="F212" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" t="s">
+        <v>257</v>
+      </c>
+      <c r="C213" t="s">
+        <v>340</v>
+      </c>
+      <c r="D213" t="s">
+        <v>434</v>
+      </c>
+      <c r="E213" t="s">
+        <v>449</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" t="s">
+        <v>341</v>
+      </c>
+      <c r="D214" t="s">
+        <v>435</v>
+      </c>
+      <c r="E214" t="s">
+        <v>447</v>
+      </c>
+      <c r="F214" t="n">
         <v>23.0</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G214" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" t="s">
+        <v>257</v>
+      </c>
+      <c r="C215" t="s">
+        <v>341</v>
+      </c>
+      <c r="D215" t="s">
+        <v>435</v>
+      </c>
+      <c r="E215" t="s">
+        <v>448</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" t="s">
+        <v>257</v>
+      </c>
+      <c r="C216" t="s">
+        <v>341</v>
+      </c>
+      <c r="D216" t="s">
+        <v>435</v>
+      </c>
+      <c r="E216" t="s">
+        <v>449</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.038461538461538464</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C217" t="s">
+        <v>342</v>
+      </c>
+      <c r="D217" t="s">
+        <v>436</v>
+      </c>
+      <c r="E217" t="s">
+        <v>447</v>
+      </c>
+      <c r="F217" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" t="s">
+        <v>257</v>
+      </c>
+      <c r="C218" t="s">
+        <v>343</v>
+      </c>
+      <c r="D218" t="s">
+        <v>437</v>
+      </c>
+      <c r="E218" t="s">
+        <v>447</v>
+      </c>
+      <c r="F218" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.7307692307692307</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" t="s">
+        <v>257</v>
+      </c>
+      <c r="C219" t="s">
+        <v>343</v>
+      </c>
+      <c r="D219" t="s">
+        <v>437</v>
+      </c>
+      <c r="E219" t="s">
+        <v>448</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" t="s">
+        <v>257</v>
+      </c>
+      <c r="C220" t="s">
+        <v>343</v>
+      </c>
+      <c r="D220" t="s">
+        <v>437</v>
+      </c>
+      <c r="E220" t="s">
+        <v>449</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" t="s">
+        <v>257</v>
+      </c>
+      <c r="C221" t="s">
+        <v>344</v>
+      </c>
+      <c r="D221" t="s">
+        <v>438</v>
+      </c>
+      <c r="E221" t="s">
+        <v>447</v>
+      </c>
+      <c r="F221" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" t="s">
+        <v>257</v>
+      </c>
+      <c r="C222" t="s">
+        <v>344</v>
+      </c>
+      <c r="D222" t="s">
+        <v>438</v>
+      </c>
+      <c r="E222" t="s">
+        <v>448</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" t="s">
+        <v>257</v>
+      </c>
+      <c r="C223" t="s">
+        <v>344</v>
+      </c>
+      <c r="D223" t="s">
+        <v>438</v>
+      </c>
+      <c r="E223" t="s">
+        <v>449</v>
+      </c>
+      <c r="F223" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" t="s">
+        <v>257</v>
+      </c>
+      <c r="C224" t="s">
+        <v>345</v>
+      </c>
+      <c r="D224" t="s">
+        <v>439</v>
+      </c>
+      <c r="E224" t="s">
+        <v>447</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" t="s">
+        <v>257</v>
+      </c>
+      <c r="C225" t="s">
+        <v>345</v>
+      </c>
+      <c r="D225" t="s">
+        <v>439</v>
+      </c>
+      <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.19230769230769232</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" t="s">
+        <v>258</v>
+      </c>
+      <c r="C226" t="s">
+        <v>346</v>
+      </c>
+      <c r="D226" t="s">
+        <v>440</v>
+      </c>
+      <c r="E226" t="s">
+        <v>447</v>
+      </c>
+      <c r="F226" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" t="s">
+        <v>258</v>
+      </c>
+      <c r="C227" t="s">
+        <v>346</v>
+      </c>
+      <c r="D227" t="s">
+        <v>440</v>
+      </c>
+      <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" t="s">
+        <v>258</v>
+      </c>
+      <c r="C228" t="s">
+        <v>346</v>
+      </c>
+      <c r="D228" t="s">
+        <v>440</v>
+      </c>
+      <c r="E228" t="s">
+        <v>449</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" t="s">
+        <v>347</v>
+      </c>
+      <c r="D229" t="s">
+        <v>441</v>
+      </c>
+      <c r="E229" t="s">
+        <v>447</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G229" t="n">
         <v>0.9583333333333334</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" t="s">
+        <v>258</v>
+      </c>
+      <c r="C230" t="s">
+        <v>347</v>
+      </c>
+      <c r="D230" t="s">
+        <v>441</v>
+      </c>
+      <c r="E230" t="s">
+        <v>449</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.041666666666666664</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" t="s">
+        <v>258</v>
+      </c>
+      <c r="C231" t="s">
+        <v>348</v>
+      </c>
+      <c r="D231" t="s">
+        <v>442</v>
+      </c>
+      <c r="E231" t="s">
+        <v>447</v>
+      </c>
+      <c r="F231" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" t="s">
+        <v>258</v>
+      </c>
+      <c r="C232" t="s">
+        <v>348</v>
+      </c>
+      <c r="D232" t="s">
+        <v>442</v>
+      </c>
+      <c r="E232" t="s">
+        <v>448</v>
+      </c>
+      <c r="F232" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" t="s">
+        <v>258</v>
+      </c>
+      <c r="C233" t="s">
+        <v>349</v>
+      </c>
+      <c r="D233" t="s">
+        <v>443</v>
+      </c>
+      <c r="E233" t="s">
+        <v>447</v>
+      </c>
+      <c r="F233" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" t="s">
+        <v>258</v>
+      </c>
+      <c r="C234" t="s">
+        <v>349</v>
+      </c>
+      <c r="D234" t="s">
+        <v>443</v>
+      </c>
+      <c r="E234" t="s">
+        <v>448</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" t="s">
+        <v>258</v>
+      </c>
+      <c r="C235" t="s">
+        <v>350</v>
+      </c>
+      <c r="D235" t="s">
+        <v>444</v>
+      </c>
+      <c r="E235" t="s">
+        <v>447</v>
+      </c>
+      <c r="F235" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" t="s">
+        <v>258</v>
+      </c>
+      <c r="C236" t="s">
+        <v>350</v>
+      </c>
+      <c r="D236" t="s">
+        <v>444</v>
+      </c>
+      <c r="E236" t="s">
+        <v>448</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" t="s">
+        <v>258</v>
+      </c>
+      <c r="C237" t="s">
+        <v>350</v>
+      </c>
+      <c r="D237" t="s">
+        <v>444</v>
+      </c>
+      <c r="E237" t="s">
+        <v>449</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.041666666666666664</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" t="s">
+        <v>351</v>
+      </c>
+      <c r="D238" t="s">
+        <v>445</v>
+      </c>
+      <c r="E238" t="s">
+        <v>447</v>
+      </c>
+      <c r="F238" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" t="s">
+        <v>258</v>
+      </c>
+      <c r="C239" t="s">
+        <v>351</v>
+      </c>
+      <c r="D239" t="s">
+        <v>445</v>
+      </c>
+      <c r="E239" t="s">
+        <v>448</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" t="s">
+        <v>258</v>
+      </c>
+      <c r="C240" t="s">
+        <v>352</v>
+      </c>
+      <c r="D240" t="s">
+        <v>446</v>
+      </c>
+      <c r="E240" t="s">
+        <v>447</v>
+      </c>
+      <c r="F240" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" t="s">
+        <v>258</v>
+      </c>
+      <c r="C241" t="s">
+        <v>352</v>
+      </c>
+      <c r="D241" t="s">
+        <v>446</v>
+      </c>
+      <c r="E241" t="s">
+        <v>448</v>
+      </c>
+      <c r="F241" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" t="s">
+        <v>258</v>
+      </c>
+      <c r="C242" t="s">
+        <v>352</v>
+      </c>
+      <c r="D242" t="s">
+        <v>446</v>
+      </c>
+      <c r="E242" t="s">
+        <v>449</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.08333333333333333</v>
       </c>
     </row>
   </sheetData>
